--- a/Office_rental_data/data/datos_sucios/Inmuebles_venta.xlsx
+++ b/Office_rental_data/data/datos_sucios/Inmuebles_venta.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oy0rzabal\Desktop\Data_used\Office_rental_data\data\datos_sucios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79DBB0B-0BD9-4AF8-BFD9-14B516E988B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28905" yWindow="390" windowWidth="16095" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg/QH8DF4MUOlSQPnzKPQbLyOx47A=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <t>Title</t>
   </si>
@@ -103,9 +112,6 @@
   </si>
   <si>
     <t>Destacado</t>
-  </si>
-  <si>
-    <t>USD 355,215</t>
   </si>
   <si>
     <t>Fraccionamiento Club Deportivo, Acapulco de Juárez</t>
@@ -155,9 +161,6 @@
     <t>https://img10.naventcdn.com/avisos/18/00/55/70/81/31/360x266/137225355.jpg</t>
   </si>
   <si>
-    <t>MN 24,000,000</t>
-  </si>
-  <si>
     <t>Barrio La Poza, Acapulco de Juárez</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
     <t>https://img10.naventcdn.com/avisos/18/00/62/39/71/65/360x266/282135864.jpg</t>
   </si>
   <si>
-    <t>MN 1,290,000</t>
-  </si>
-  <si>
     <t>Acapulco de Juárez Centro, Acapulco de Juárez</t>
   </si>
   <si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t>COSTA AZUL</t>
-  </si>
-  <si>
-    <t>MN 3,800,000</t>
   </si>
   <si>
     <t>Acapulco de Juárez, Guerrero</t>
@@ -320,9 +317,6 @@
     <t>https://img10.naventcdn.com/avisos/18/00/63/15/84/88/360x266/295645358.jpg</t>
   </si>
   <si>
-    <t>MN 1,690,000</t>
-  </si>
-  <si>
     <t>Fraccionamiento Costa Azul, Acapulco de Juárez</t>
   </si>
   <si>
@@ -372,9 +366,6 @@
     <t>https://img10.naventcdn.com/avisos/18/00/59/59/35/91/360x266/268083837.jpg</t>
   </si>
   <si>
-    <t>MN 5,881,852</t>
-  </si>
-  <si>
     <t>https://www.inmuebles24.com/propiedades/oficinas-en-venta-desde-$749-961.83-en-acapulco-59593591.html</t>
   </si>
   <si>
@@ -391,9 +382,6 @@
   </si>
   <si>
     <t>AQUILES SERDAN</t>
-  </si>
-  <si>
-    <t>MN 650,000</t>
   </si>
   <si>
     <t>32 m²
@@ -477,28 +465,55 @@
   </si>
   <si>
     <t>https://img10.naventcdn.com/avisos/18/00/55/63/67/52/360x266/137217008.jpg</t>
+  </si>
+  <si>
+    <t>USD 355215</t>
+  </si>
+  <si>
+    <t>Fraccionamiento Club Deportivo Acapulco de Juárez</t>
+  </si>
+  <si>
+    <t>MN 24000000</t>
+  </si>
+  <si>
+    <t>MN 1290000</t>
+  </si>
+  <si>
+    <t>MN 3800000</t>
+  </si>
+  <si>
+    <t>MN 1690000</t>
+  </si>
+  <si>
+    <t>MN 5881852</t>
+  </si>
+  <si>
+    <t>MN 650000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -508,52 +523,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -743,23 +760,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col min="1" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +842,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -843,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>26</v>
@@ -855,156 +877,159 @@
         <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="R3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H4" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="R4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1015,84 +1040,88 @@
         <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="N5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="R6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1105,149 +1134,153 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="H8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="R8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="S8" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="H9" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1258,33 +1291,33 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
@@ -1319,210 +1352,212 @@
         <v>28</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H12" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="N12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="R12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="J13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="R13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="S13" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="J14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>26</v>
@@ -1557,33 +1592,33 @@
         <v>28</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1641,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>26</v>
@@ -1618,38 +1653,38 @@
         <v>28</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>21</v>
@@ -1667,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>26</v>
@@ -1679,33 +1714,33 @@
         <v>28</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1728,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="H18" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
@@ -1740,33 +1775,33 @@
         <v>28</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>26</v>
@@ -1801,36 +1836,37 @@
         <v>28</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1847,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="H20" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>26</v>
@@ -1859,33 +1895,33 @@
         <v>28</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1896,7 +1932,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1907,7 +1943,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1918,7 +1954,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1929,7 +1965,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1940,7 +1976,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -1951,7 +1987,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1962,7 +1998,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1973,7 +2009,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -1984,7 +2020,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -1995,7 +2031,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -2006,7 +2042,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -2017,7 +2053,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -2028,7 +2064,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -2039,7 +2075,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -2050,7 +2086,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -2061,7 +2097,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -2072,7 +2108,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -2083,7 +2119,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -2094,7 +2130,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -2105,7 +2141,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -2116,7 +2152,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -2127,7 +2163,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -2138,7 +2174,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -2149,7 +2185,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -2160,7 +2196,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -2171,7 +2207,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -2182,7 +2218,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -2193,7 +2229,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
@@ -2204,7 +2240,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -2215,7 +2251,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -2226,7 +2262,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -2237,7 +2273,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -2248,7 +2284,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -2259,7 +2295,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -2270,7 +2306,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -2281,7 +2317,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -2292,951 +2328,955 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="58" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="18:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
@@ -3244,181 +3284,177 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="D2"/>
-    <hyperlink r:id="rId4" ref="E2"/>
-    <hyperlink r:id="rId5" ref="F2"/>
-    <hyperlink r:id="rId6" ref="G2"/>
-    <hyperlink r:id="rId7" ref="J2"/>
-    <hyperlink r:id="rId8" ref="O2"/>
-    <hyperlink r:id="rId9" ref="R2"/>
-    <hyperlink r:id="rId10" ref="S2"/>
-    <hyperlink r:id="rId11" ref="B3"/>
-    <hyperlink r:id="rId12" ref="C3"/>
-    <hyperlink r:id="rId13" ref="D3"/>
-    <hyperlink r:id="rId14" ref="E3"/>
-    <hyperlink r:id="rId15" ref="F3"/>
-    <hyperlink r:id="rId16" ref="G3"/>
-    <hyperlink r:id="rId17" ref="J3"/>
-    <hyperlink r:id="rId18" ref="O3"/>
-    <hyperlink r:id="rId19" ref="R3"/>
-    <hyperlink r:id="rId20" ref="S3"/>
-    <hyperlink r:id="rId21" ref="B4"/>
-    <hyperlink r:id="rId22" ref="C4"/>
-    <hyperlink r:id="rId23" ref="D4"/>
-    <hyperlink r:id="rId24" ref="E4"/>
-    <hyperlink r:id="rId25" ref="F4"/>
-    <hyperlink r:id="rId26" ref="G4"/>
-    <hyperlink r:id="rId27" ref="J4"/>
-    <hyperlink r:id="rId28" ref="O4"/>
-    <hyperlink r:id="rId29" ref="R4"/>
-    <hyperlink r:id="rId30" ref="S4"/>
-    <hyperlink r:id="rId31" ref="O5"/>
-    <hyperlink r:id="rId32" ref="R5"/>
-    <hyperlink r:id="rId33" ref="S5"/>
-    <hyperlink r:id="rId34" ref="B6"/>
-    <hyperlink r:id="rId35" ref="C6"/>
-    <hyperlink r:id="rId36" ref="D6"/>
-    <hyperlink r:id="rId37" ref="E6"/>
-    <hyperlink r:id="rId38" ref="F6"/>
-    <hyperlink r:id="rId39" ref="G6"/>
-    <hyperlink r:id="rId40" ref="J6"/>
-    <hyperlink r:id="rId41" ref="O6"/>
-    <hyperlink r:id="rId42" ref="R6"/>
-    <hyperlink r:id="rId43" ref="S6"/>
-    <hyperlink r:id="rId44" ref="O7"/>
-    <hyperlink r:id="rId45" ref="R7"/>
-    <hyperlink r:id="rId46" ref="S7"/>
-    <hyperlink r:id="rId47" ref="B8"/>
-    <hyperlink r:id="rId48" ref="C8"/>
-    <hyperlink r:id="rId49" ref="D8"/>
-    <hyperlink r:id="rId50" ref="E8"/>
-    <hyperlink r:id="rId51" ref="F8"/>
-    <hyperlink r:id="rId52" ref="G8"/>
-    <hyperlink r:id="rId53" ref="J8"/>
-    <hyperlink r:id="rId54" ref="O8"/>
-    <hyperlink r:id="rId55" ref="R8"/>
-    <hyperlink r:id="rId56" ref="S8"/>
-    <hyperlink r:id="rId57" ref="B9"/>
-    <hyperlink r:id="rId58" ref="C9"/>
-    <hyperlink r:id="rId59" ref="D9"/>
-    <hyperlink r:id="rId60" ref="E9"/>
-    <hyperlink r:id="rId61" ref="F9"/>
-    <hyperlink r:id="rId62" ref="G9"/>
-    <hyperlink r:id="rId63" ref="J9"/>
-    <hyperlink r:id="rId64" ref="O9"/>
-    <hyperlink r:id="rId65" ref="R9"/>
-    <hyperlink r:id="rId66" ref="S9"/>
-    <hyperlink r:id="rId67" ref="O10"/>
-    <hyperlink r:id="rId68" ref="R10"/>
-    <hyperlink r:id="rId69" ref="S10"/>
-    <hyperlink r:id="rId70" ref="B11"/>
-    <hyperlink r:id="rId71" ref="C11"/>
-    <hyperlink r:id="rId72" ref="D11"/>
-    <hyperlink r:id="rId73" ref="E11"/>
-    <hyperlink r:id="rId74" ref="F11"/>
-    <hyperlink r:id="rId75" ref="G11"/>
-    <hyperlink r:id="rId76" ref="J11"/>
-    <hyperlink r:id="rId77" ref="O11"/>
-    <hyperlink r:id="rId78" ref="R11"/>
-    <hyperlink r:id="rId79" ref="S11"/>
-    <hyperlink r:id="rId80" ref="B12"/>
-    <hyperlink r:id="rId81" ref="C12"/>
-    <hyperlink r:id="rId82" ref="D12"/>
-    <hyperlink r:id="rId83" ref="E12"/>
-    <hyperlink r:id="rId84" ref="F12"/>
-    <hyperlink r:id="rId85" ref="G12"/>
-    <hyperlink r:id="rId86" ref="J12"/>
-    <hyperlink r:id="rId87" ref="O12"/>
-    <hyperlink r:id="rId88" ref="R12"/>
-    <hyperlink r:id="rId89" ref="S12"/>
-    <hyperlink r:id="rId90" ref="B13"/>
-    <hyperlink r:id="rId91" ref="C13"/>
-    <hyperlink r:id="rId92" ref="D13"/>
-    <hyperlink r:id="rId93" ref="E13"/>
-    <hyperlink r:id="rId94" ref="F13"/>
-    <hyperlink r:id="rId95" ref="G13"/>
-    <hyperlink r:id="rId96" ref="J13"/>
-    <hyperlink r:id="rId97" ref="O13"/>
-    <hyperlink r:id="rId98" ref="R13"/>
-    <hyperlink r:id="rId99" ref="S13"/>
-    <hyperlink r:id="rId100" ref="B14"/>
-    <hyperlink r:id="rId101" ref="C14"/>
-    <hyperlink r:id="rId102" ref="D14"/>
-    <hyperlink r:id="rId103" ref="E14"/>
-    <hyperlink r:id="rId104" ref="F14"/>
-    <hyperlink r:id="rId105" ref="G14"/>
-    <hyperlink r:id="rId106" ref="J14"/>
-    <hyperlink r:id="rId107" ref="O14"/>
-    <hyperlink r:id="rId108" ref="R14"/>
-    <hyperlink r:id="rId109" ref="S14"/>
-    <hyperlink r:id="rId110" ref="B15"/>
-    <hyperlink r:id="rId111" ref="C15"/>
-    <hyperlink r:id="rId112" ref="D15"/>
-    <hyperlink r:id="rId113" ref="E15"/>
-    <hyperlink r:id="rId114" ref="F15"/>
-    <hyperlink r:id="rId115" ref="G15"/>
-    <hyperlink r:id="rId116" ref="J15"/>
-    <hyperlink r:id="rId117" ref="O15"/>
-    <hyperlink r:id="rId118" ref="R15"/>
-    <hyperlink r:id="rId119" ref="S15"/>
-    <hyperlink r:id="rId120" ref="B16"/>
-    <hyperlink r:id="rId121" ref="C16"/>
-    <hyperlink r:id="rId122" ref="D16"/>
-    <hyperlink r:id="rId123" ref="E16"/>
-    <hyperlink r:id="rId124" ref="F16"/>
-    <hyperlink r:id="rId125" ref="G16"/>
-    <hyperlink r:id="rId126" ref="J16"/>
-    <hyperlink r:id="rId127" ref="O16"/>
-    <hyperlink r:id="rId128" ref="R16"/>
-    <hyperlink r:id="rId129" ref="S16"/>
-    <hyperlink r:id="rId130" ref="B17"/>
-    <hyperlink r:id="rId131" ref="C17"/>
-    <hyperlink r:id="rId132" ref="D17"/>
-    <hyperlink r:id="rId133" ref="E17"/>
-    <hyperlink r:id="rId134" ref="F17"/>
-    <hyperlink r:id="rId135" ref="G17"/>
-    <hyperlink r:id="rId136" ref="J17"/>
-    <hyperlink r:id="rId137" ref="O17"/>
-    <hyperlink r:id="rId138" ref="R17"/>
-    <hyperlink r:id="rId139" ref="S17"/>
-    <hyperlink r:id="rId140" ref="B18"/>
-    <hyperlink r:id="rId141" ref="C18"/>
-    <hyperlink r:id="rId142" ref="D18"/>
-    <hyperlink r:id="rId143" ref="E18"/>
-    <hyperlink r:id="rId144" ref="F18"/>
-    <hyperlink r:id="rId145" ref="G18"/>
-    <hyperlink r:id="rId146" ref="J18"/>
-    <hyperlink r:id="rId147" ref="O18"/>
-    <hyperlink r:id="rId148" ref="R18"/>
-    <hyperlink r:id="rId149" ref="S18"/>
-    <hyperlink r:id="rId150" ref="B19"/>
-    <hyperlink r:id="rId151" ref="C19"/>
-    <hyperlink r:id="rId152" ref="D19"/>
-    <hyperlink r:id="rId153" ref="E19"/>
-    <hyperlink r:id="rId154" ref="F19"/>
-    <hyperlink r:id="rId155" ref="G19"/>
-    <hyperlink r:id="rId156" ref="J19"/>
-    <hyperlink r:id="rId157" ref="O19"/>
-    <hyperlink r:id="rId158" ref="R19"/>
-    <hyperlink r:id="rId159" ref="S19"/>
-    <hyperlink r:id="rId160" ref="C20"/>
-    <hyperlink r:id="rId161" ref="D20"/>
-    <hyperlink r:id="rId162" ref="E20"/>
-    <hyperlink r:id="rId163" ref="F20"/>
-    <hyperlink r:id="rId164" ref="G20"/>
-    <hyperlink r:id="rId165" ref="J20"/>
-    <hyperlink r:id="rId166" ref="O20"/>
-    <hyperlink r:id="rId167" ref="R20"/>
-    <hyperlink r:id="rId168" ref="S20"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="R2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="S2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E3" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J3" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="R3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="S3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B4" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C4" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D4" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F4" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G4" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="O4" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="R4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="S4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="R5" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="S5" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B6" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C6" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D6" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F6" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G6" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J6" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="O6" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="R6" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="S6" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O7" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="R7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="S7" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B8" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C8" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D8" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E8" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F8" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G8" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J8" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O8" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="R8" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="S8" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B9" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C9" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D9" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F9" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G9" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J9" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="O9" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="R9" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="S9" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O10" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="R10" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="S10" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B11" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C11" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D11" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E11" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F11" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G11" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J11" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="O11" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="R11" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="S11" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B12" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C12" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D12" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F12" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J12" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="O12" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="R12" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="S12" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B13" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C13" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D13" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E13" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F13" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G13" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J13" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="O13" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="R13" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="S13" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B14" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C14" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D14" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E14" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F14" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G14" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J14" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="O14" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="R14" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="S14" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B15" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C15" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D15" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E15" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F15" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G15" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J15" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="O15" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="R15" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="S15" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B16" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C16" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D16" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E16" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F16" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G16" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J16" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="O16" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="R16" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="S16" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B17" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C17" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D17" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E17" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F17" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G17" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J17" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="O17" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="R17" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="S17" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B18" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C18" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D18" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E18" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F18" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G18" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J18" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="O18" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="R18" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="S18" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B19" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C19" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D19" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E19" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F19" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G19" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J19" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="O19" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="R19" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="S19" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C20" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D20" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E20" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="F20" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G20" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J20" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="O20" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="R20" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="S20" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
   </hyperlinks>
-  <drawing r:id="rId169"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>